--- a/spliced/struggle/2023-04-06_17-43-07/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-07/data_selected.xlsx
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1368236541748047</v>
+        <v>-0.0151729583740234</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4095092415809631</v>
+        <v>0.2465144991874694</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.2153286337852478</v>
+        <v>0.0501556992530822</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.2539235970803638</v>
+        <v>-1.24240333419673</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.6386596262454889</v>
+        <v>-3.812540969678324</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1363320350646959</v>
+        <v>0.5514710630689335</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.0151729583740234</v>
+        <v>2.021584510803223</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2465144991874694</v>
+        <v>-1.973333358764648</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0501556992530822</v>
+        <v>-6.84404182434082</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.24240333419673</v>
+        <v>-0.8357415758833607</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.812540969678324</v>
+        <v>-3.073275580698133</v>
       </c>
       <c r="H3" t="n">
-        <v>0.5514710630689335</v>
+        <v>1.045012784247494</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.021584510803223</v>
+        <v>2.214876651763916</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.973333358764648</v>
+        <v>2.617048025131226</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.84404182434082</v>
+        <v>-4.977540016174316</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.8357415758833607</v>
+        <v>-0.3463418929248446</v>
       </c>
       <c r="G4" t="n">
-        <v>-3.073275580698133</v>
+        <v>-2.08665958715945</v>
       </c>
       <c r="H4" t="n">
-        <v>1.045012784247494</v>
+        <v>0.5867890514889552</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.214876651763916</v>
+        <v>-4.946963310241699</v>
       </c>
       <c r="D5" t="n">
-        <v>2.617048025131226</v>
+        <v>-1.464599609375</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.977540016174316</v>
+        <v>0.2086009979248047</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3463418929248446</v>
+        <v>-0.1247474120891824</v>
       </c>
       <c r="G5" t="n">
-        <v>-2.08665958715945</v>
+        <v>-1.187129327229091</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5867890514889552</v>
+        <v>0.3211249946331491</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-4.946963310241699</v>
+        <v>-1.311498880386352</v>
       </c>
       <c r="D6" t="n">
-        <v>-1.464599609375</v>
+        <v>-0.6331030130386353</v>
       </c>
       <c r="E6" t="n">
-        <v>0.2086009979248047</v>
+        <v>-0.9298524856567384</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1247474120891824</v>
+        <v>-0.08147882624548454</v>
       </c>
       <c r="G6" t="n">
-        <v>-1.187129327229091</v>
+        <v>-0.2940848761675368</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3211249946331491</v>
+        <v>0.3946158166746729</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-1.311498880386352</v>
+        <v>-0.7284626960754395</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.6331030130386353</v>
+        <v>1.614851474761963</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.9298524856567384</v>
+        <v>4.958660125732422</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08147882624548454</v>
+        <v>0.217271684383857</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2940848761675368</v>
+        <v>1.024243365745133</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3946158166746729</v>
+        <v>-0.1530809580367363</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-0.7284626960754395</v>
+        <v>-11.12845420837402</v>
       </c>
       <c r="D8" t="n">
-        <v>1.614851474761963</v>
+        <v>3.947137832641602</v>
       </c>
       <c r="E8" t="n">
-        <v>4.958660125732422</v>
+        <v>8.631446838378906</v>
       </c>
       <c r="F8" t="n">
-        <v>0.217271684383857</v>
+        <v>0.7111998541014513</v>
       </c>
       <c r="G8" t="n">
-        <v>1.024243365745133</v>
+        <v>5.599125376769453</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1530809580367363</v>
+        <v>-1.684482739440025</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-11.12845420837402</v>
+        <v>5.936349868774414</v>
       </c>
       <c r="D9" t="n">
-        <v>3.947137832641602</v>
+        <v>-0.3100541830062866</v>
       </c>
       <c r="E9" t="n">
-        <v>8.631446838378906</v>
+        <v>-5.833556175231934</v>
       </c>
       <c r="F9" t="n">
-        <v>0.7111998541014513</v>
+        <v>-0.03431442684056363</v>
       </c>
       <c r="G9" t="n">
-        <v>5.599125376769453</v>
+        <v>5.303968478222288</v>
       </c>
       <c r="H9" t="n">
-        <v>-1.684482739440025</v>
+        <v>-0.2843577630665928</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5.936349868774414</v>
+        <v>-1.618814945220947</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3100541830062866</v>
+        <v>-2.745197772979736</v>
       </c>
       <c r="E10" t="n">
-        <v>-5.833556175231934</v>
+        <v>-3.147943019866944</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03431442684056363</v>
+        <v>0.09735821826116758</v>
       </c>
       <c r="G10" t="n">
-        <v>5.303968478222288</v>
+        <v>3.700285123319055</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.2843577630665928</v>
+        <v>0.6092508264950334</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.618814945220947</v>
+        <v>-3.717551708221436</v>
       </c>
       <c r="D11" t="n">
-        <v>-2.745197772979736</v>
+        <v>-0.5804144740104675</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.147943019866944</v>
+        <v>2.004154682159424</v>
       </c>
       <c r="F11" t="n">
-        <v>0.09735821826116758</v>
+        <v>0.4117356596552622</v>
       </c>
       <c r="G11" t="n">
-        <v>3.700285123319055</v>
+        <v>2.450753956424948</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6092508264950334</v>
+        <v>0.3930325690580906</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.717551708221436</v>
+        <v>-2.254782676696777</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.5804144740104675</v>
+        <v>2.873416900634766</v>
       </c>
       <c r="E12" t="n">
-        <v>2.004154682159424</v>
+        <v>-8.692718505859375</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4117356596552622</v>
+        <v>-0.05785143649091724</v>
       </c>
       <c r="G12" t="n">
-        <v>2.450753956424948</v>
+        <v>1.907227247953421</v>
       </c>
       <c r="H12" t="n">
-        <v>0.3930325690580906</v>
+        <v>-0.3687911945946344</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.254782676696777</v>
+        <v>-8.337739944458008</v>
       </c>
       <c r="D13" t="n">
-        <v>2.873416900634766</v>
+        <v>-3.719696521759033</v>
       </c>
       <c r="E13" t="n">
-        <v>-8.692718505859375</v>
+        <v>-4.337332725524902</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.05785143649091724</v>
+        <v>0.4829513220762701</v>
       </c>
       <c r="G13" t="n">
-        <v>1.907227247953421</v>
+        <v>0.2850683629512847</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.3687911945946344</v>
+        <v>-0.8451413950141577</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-8.337739944458008</v>
+        <v>1.585304737091064</v>
       </c>
       <c r="D14" t="n">
-        <v>-3.719696521759033</v>
+        <v>1.517187714576721</v>
       </c>
       <c r="E14" t="n">
-        <v>-4.337332725524902</v>
+        <v>7.499239444732666</v>
       </c>
       <c r="F14" t="n">
-        <v>0.4829513220762701</v>
+        <v>0.1798686522002135</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2850683629512847</v>
+        <v>-4.301874998880876</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.8451413950141577</v>
+        <v>-1.544167586735314</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.585304737091064</v>
+        <v>-2.441369771957397</v>
       </c>
       <c r="D15" t="n">
-        <v>1.517187714576721</v>
+        <v>1.091274261474609</v>
       </c>
       <c r="E15" t="n">
-        <v>7.499239444732666</v>
+        <v>0.2500591278076172</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1798686522002135</v>
+        <v>-0.1045452207326868</v>
       </c>
       <c r="G15" t="n">
-        <v>-4.301874998880876</v>
+        <v>-6.587047031947534</v>
       </c>
       <c r="H15" t="n">
-        <v>-1.544167586735314</v>
+        <v>-0.4474151475089096</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.441369771957397</v>
+        <v>-2.391006469726562</v>
       </c>
       <c r="D16" t="n">
-        <v>1.091274261474609</v>
+        <v>4.326517105102539</v>
       </c>
       <c r="E16" t="n">
-        <v>0.2500591278076172</v>
+        <v>1.920782089233398</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1045452207326868</v>
+        <v>-0.5947178358934316</v>
       </c>
       <c r="G16" t="n">
-        <v>-6.587047031947534</v>
+        <v>-5.224094493048558</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.4474151475089096</v>
+        <v>0.5132795298586089</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-2.391006469726562</v>
+        <v>-8.625715255737305</v>
       </c>
       <c r="D17" t="n">
-        <v>4.326517105102539</v>
+        <v>1.131956696510315</v>
       </c>
       <c r="E17" t="n">
-        <v>1.920782089233398</v>
+        <v>10.77142906188965</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5947178358934316</v>
+        <v>-0.8548342390936281</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.224094493048558</v>
+        <v>-2.185787964840323</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5132795298586089</v>
+        <v>0.3064268468594082</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-8.625715255737305</v>
+        <v>-2.745645046234131</v>
       </c>
       <c r="D18" t="n">
-        <v>1.131956696510315</v>
+        <v>-3.043209075927734</v>
       </c>
       <c r="E18" t="n">
-        <v>10.77142906188965</v>
+        <v>-2.123822450637817</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.8548342390936281</v>
+        <v>0.3455876613758052</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.185787964840323</v>
+        <v>-2.538163804582192</v>
       </c>
       <c r="H18" t="n">
-        <v>0.3064268468594082</v>
+        <v>-0.3575649772371564</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-2.745645046234131</v>
+        <v>0.9841413497924804</v>
       </c>
       <c r="D19" t="n">
-        <v>-3.043209075927734</v>
+        <v>2.591554641723633</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.123822450637817</v>
+        <v>-6.520083427429199</v>
       </c>
       <c r="F19" t="n">
-        <v>0.3455876613758052</v>
+        <v>0.1558454343859045</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.538163804582192</v>
+        <v>-0.2726017300571888</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3575649772371564</v>
+        <v>-0.3659176315580095</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.9841413497924804</v>
+        <v>-5.384963035583496</v>
       </c>
       <c r="D20" t="n">
-        <v>2.591554641723633</v>
+        <v>1.437288880348206</v>
       </c>
       <c r="E20" t="n">
-        <v>-6.520083427429199</v>
+        <v>-2.568338394165039</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1558454343859045</v>
+        <v>0.8777634601811899</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2726017300571888</v>
+        <v>3.256778053787261</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.3659176315580095</v>
+        <v>-1.151989024512615</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-5.384963035583496</v>
+        <v>0.6416101455688477</v>
       </c>
       <c r="D21" t="n">
-        <v>1.437288880348206</v>
+        <v>0.1077315807342529</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.568338394165039</v>
+        <v>-3.572567462921143</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8777634601811899</v>
+        <v>1.138076220239913</v>
       </c>
       <c r="G21" t="n">
-        <v>3.256778053787261</v>
+        <v>4.945667840996566</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.151989024512615</v>
+        <v>-0.5911586260309147</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/struggle/2023-04-06_17-43-07/data_selected.xlsx
+++ b/spliced/struggle/2023-04-06_17-43-07/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.0151729583740234</v>
+        <v>0.037449836730957</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2465144991874694</v>
+        <v>0.3890565633773803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0501556992530822</v>
+        <v>-0.2103400230407714</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.24240333419673</v>
+        <v>0.00580321977447178</v>
       </c>
       <c r="G2" t="n">
-        <v>-3.812540969678324</v>
+        <v>0.07317293116024544</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5514710630689335</v>
+        <v>0.01743147575429496</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.021584510803223</v>
+        <v>0.0105371475219726</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.973333358764648</v>
+        <v>0.3668201565742492</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.84404182434082</v>
+        <v>-0.3450851440429687</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8357415758833607</v>
+        <v>-0.01212380492907687</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.073275580698133</v>
+        <v>0.1479228914392232</v>
       </c>
       <c r="H3" t="n">
-        <v>1.045012784247494</v>
+        <v>0.03119464347861243</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.214876651763916</v>
+        <v>0.1156568527221679</v>
       </c>
       <c r="D4" t="n">
-        <v>2.617048025131226</v>
+        <v>0.2621434330940246</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.977540016174316</v>
+        <v>0.2320724725723266</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.3463418929248446</v>
+        <v>-0.05563860289676467</v>
       </c>
       <c r="G4" t="n">
-        <v>-2.08665958715945</v>
+        <v>0.2476778115545005</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5867890514889552</v>
+        <v>0.03135671048444155</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.946963310241699</v>
+        <v>-0.012700080871582</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.464599609375</v>
+        <v>0.3827533721923828</v>
       </c>
       <c r="E5" t="n">
-        <v>0.2086009979248047</v>
+        <v>0.0918664336204528</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1247474120891824</v>
+        <v>0.000710598117082524</v>
       </c>
       <c r="G5" t="n">
-        <v>-1.187129327229091</v>
+        <v>-0.0459115079471038</v>
       </c>
       <c r="H5" t="n">
-        <v>0.3211249946331491</v>
+        <v>-0.03720979673825954</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-1.311498880386352</v>
+        <v>-0.1776895523071289</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.6331030130386353</v>
+        <v>1.103561997413635</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.9298524856567384</v>
+        <v>-1.161585211753845</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.08147882624548454</v>
+        <v>0.03395912094915998</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2940848761675368</v>
+        <v>-0.002209710983597735</v>
       </c>
       <c r="H6" t="n">
-        <v>0.3946158166746729</v>
+        <v>-0.02471199281969851</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.7284626960754395</v>
+        <v>-0.1967945098876953</v>
       </c>
       <c r="D7" t="n">
-        <v>1.614851474761963</v>
+        <v>-0.0881298780441284</v>
       </c>
       <c r="E7" t="n">
-        <v>4.958660125732422</v>
+        <v>-0.4354097247123718</v>
       </c>
       <c r="F7" t="n">
-        <v>0.217271684383857</v>
+        <v>0.0100699262883591</v>
       </c>
       <c r="G7" t="n">
-        <v>1.024243365745133</v>
+        <v>-0.003861541194575109</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.1530809580367363</v>
+        <v>-0.02743906991518268</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-11.12845420837402</v>
+        <v>0.3726930618286133</v>
       </c>
       <c r="D8" t="n">
-        <v>3.947137832641602</v>
+        <v>0.3928739428520202</v>
       </c>
       <c r="E8" t="n">
-        <v>8.631446838378906</v>
+        <v>-0.1955753564834594</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7111998541014513</v>
+        <v>-0.04216528505238931</v>
       </c>
       <c r="G8" t="n">
-        <v>5.599125376769453</v>
+        <v>-0.05587235412427344</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.684482739440025</v>
+        <v>-0.005946585338334982</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.936349868774414</v>
+        <v>0.1368236541748047</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3100541830062866</v>
+        <v>0.4095092415809631</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.833556175231934</v>
+        <v>-0.2153286337852478</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.03431442684056363</v>
+        <v>-0.2539235970803638</v>
       </c>
       <c r="G9" t="n">
-        <v>5.303968478222288</v>
+        <v>-0.6386596262454889</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2843577630665928</v>
+        <v>0.1363320350646959</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.618814945220947</v>
+        <v>-0.0151729583740234</v>
       </c>
       <c r="D10" t="n">
-        <v>-2.745197772979736</v>
+        <v>0.2465144991874694</v>
       </c>
       <c r="E10" t="n">
-        <v>-3.147943019866944</v>
+        <v>0.0501556992530822</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09735821826116758</v>
+        <v>-1.24240333419673</v>
       </c>
       <c r="G10" t="n">
-        <v>3.700285123319055</v>
+        <v>-3.812540969678324</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6092508264950334</v>
+        <v>0.5514710630689335</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-3.717551708221436</v>
+        <v>2.021584510803223</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.5804144740104675</v>
+        <v>-1.973333358764648</v>
       </c>
       <c r="E11" t="n">
-        <v>2.004154682159424</v>
+        <v>-6.84404182434082</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4117356596552622</v>
+        <v>-0.8357415758833607</v>
       </c>
       <c r="G11" t="n">
-        <v>2.450753956424948</v>
+        <v>-3.073275580698133</v>
       </c>
       <c r="H11" t="n">
-        <v>0.3930325690580906</v>
+        <v>1.045012784247494</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-2.254782676696777</v>
+        <v>2.214876651763916</v>
       </c>
       <c r="D12" t="n">
-        <v>2.873416900634766</v>
+        <v>2.617048025131226</v>
       </c>
       <c r="E12" t="n">
-        <v>-8.692718505859375</v>
+        <v>-4.977540016174316</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05785143649091724</v>
+        <v>-0.3463418929248446</v>
       </c>
       <c r="G12" t="n">
-        <v>1.907227247953421</v>
+        <v>-2.08665958715945</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3687911945946344</v>
+        <v>0.5867890514889552</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-8.337739944458008</v>
+        <v>-4.946963310241699</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.719696521759033</v>
+        <v>-1.464599609375</v>
       </c>
       <c r="E13" t="n">
-        <v>-4.337332725524902</v>
+        <v>0.2086009979248047</v>
       </c>
       <c r="F13" t="n">
-        <v>0.4829513220762701</v>
+        <v>-0.1247474120891824</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2850683629512847</v>
+        <v>-1.187129327229091</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8451413950141577</v>
+        <v>0.3211249946331491</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.585304737091064</v>
+        <v>-1.311498880386352</v>
       </c>
       <c r="D14" t="n">
-        <v>1.517187714576721</v>
+        <v>-0.6331030130386353</v>
       </c>
       <c r="E14" t="n">
-        <v>7.499239444732666</v>
+        <v>-0.9298524856567384</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1798686522002135</v>
+        <v>-0.08147882624548454</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.301874998880876</v>
+        <v>-0.2940848761675368</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.544167586735314</v>
+        <v>0.3946158166746729</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-2.441369771957397</v>
+        <v>-0.7284626960754395</v>
       </c>
       <c r="D15" t="n">
-        <v>1.091274261474609</v>
+        <v>1.614851474761963</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2500591278076172</v>
+        <v>4.958660125732422</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1045452207326868</v>
+        <v>0.217271684383857</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.587047031947534</v>
+        <v>1.024243365745133</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.4474151475089096</v>
+        <v>-0.1530809580367363</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.391006469726562</v>
+        <v>-11.12845420837402</v>
       </c>
       <c r="D16" t="n">
-        <v>4.326517105102539</v>
+        <v>3.947137832641602</v>
       </c>
       <c r="E16" t="n">
-        <v>1.920782089233398</v>
+        <v>8.631446838378906</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5947178358934316</v>
+        <v>0.7111998541014513</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.224094493048558</v>
+        <v>5.599125376769453</v>
       </c>
       <c r="H16" t="n">
-        <v>0.5132795298586089</v>
+        <v>-1.684482739440025</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-8.625715255737305</v>
+        <v>5.936349868774414</v>
       </c>
       <c r="D17" t="n">
-        <v>1.131956696510315</v>
+        <v>-0.3100541830062866</v>
       </c>
       <c r="E17" t="n">
-        <v>10.77142906188965</v>
+        <v>-5.833556175231934</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.8548342390936281</v>
+        <v>-0.03431442684056363</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.185787964840323</v>
+        <v>5.303968478222288</v>
       </c>
       <c r="H17" t="n">
-        <v>0.3064268468594082</v>
+        <v>-0.2843577630665928</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-2.745645046234131</v>
+        <v>-1.618814945220947</v>
       </c>
       <c r="D18" t="n">
-        <v>-3.043209075927734</v>
+        <v>-2.745197772979736</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.123822450637817</v>
+        <v>-3.147943019866944</v>
       </c>
       <c r="F18" t="n">
-        <v>0.3455876613758052</v>
+        <v>0.09735821826116758</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.538163804582192</v>
+        <v>3.700285123319055</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.3575649772371564</v>
+        <v>0.6092508264950334</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.9841413497924804</v>
+        <v>-3.717551708221436</v>
       </c>
       <c r="D19" t="n">
-        <v>2.591554641723633</v>
+        <v>-0.5804144740104675</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.520083427429199</v>
+        <v>2.004154682159424</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1558454343859045</v>
+        <v>0.4117356596552622</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2726017300571888</v>
+        <v>2.450753956424948</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.3659176315580095</v>
+        <v>0.3930325690580906</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-5.384963035583496</v>
+        <v>-2.254782676696777</v>
       </c>
       <c r="D20" t="n">
-        <v>1.437288880348206</v>
+        <v>2.873416900634766</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.568338394165039</v>
+        <v>-8.692718505859375</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8777634601811899</v>
+        <v>-0.05785143649091724</v>
       </c>
       <c r="G20" t="n">
-        <v>3.256778053787261</v>
+        <v>1.907227247953421</v>
       </c>
       <c r="H20" t="n">
-        <v>-1.151989024512615</v>
+        <v>-0.3687911945946344</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-8.337739944458008</v>
+      </c>
+      <c r="D21" t="n">
+        <v>-3.719696521759033</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-4.337332725524902</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.4829513220762701</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.2850683629512847</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.8451413950141577</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>1.585304737091064</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1.517187714576721</v>
+      </c>
+      <c r="E22" t="n">
+        <v>7.499239444732666</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.1798686522002135</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-4.301874998880876</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.544167586735314</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.441369771957397</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1.091274261474609</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.2500591278076172</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.1045452207326868</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-6.587047031947534</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.4474151475089096</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-2.391006469726562</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.326517105102539</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1.920782089233398</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.5947178358934316</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-5.224094493048558</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.5132795298586089</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-8.625715255737305</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.131956696510315</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10.77142906188965</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.8548342390936281</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-2.185787964840323</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.3064268468594082</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.745645046234131</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-3.043209075927734</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.123822450637817</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.3455876613758052</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-2.538163804582192</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.3575649772371564</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9841413497924804</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2.591554641723633</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-6.520083427429199</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.1558454343859045</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.2726017300571888</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.3659176315580095</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-5.384963035583496</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.437288880348206</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-2.568338394165039</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.8777634601811899</v>
+      </c>
+      <c r="G28" t="n">
+        <v>3.256778053787261</v>
+      </c>
+      <c r="H28" t="n">
+        <v>-1.151989024512615</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>0.6416101455688477</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D29" t="n">
         <v>0.1077315807342529</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E29" t="n">
         <v>-3.572567462921143</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F29" t="n">
         <v>1.138076220239913</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G29" t="n">
         <v>4.945667840996566</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H29" t="n">
         <v>-0.5911586260309147</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>1.180892944335938</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-0.3624088764190674</v>
+      </c>
+      <c r="E30" t="n">
+        <v>1.944910764694214</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.5868015289306701</v>
+      </c>
+      <c r="G30" t="n">
+        <v>4.023616756711703</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7568838426044971</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>struggle</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.6099348068237305</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-0.0995303392410278</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.559979677200317</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.3439888250538894</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.417871174155451</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.152574896812441</v>
       </c>
     </row>
   </sheetData>
